--- a/All-Results-0.1-0.1-0.8.xlsx
+++ b/All-Results-0.1-0.1-0.8.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Year</t>
   </si>
@@ -50,22 +50,91 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>20-</t>
+    <t>21-</t>
   </si>
   <si>
     <t>0.5105425998093707-</t>
   </si>
   <si>
-    <t>2-</t>
+    <t>3-</t>
   </si>
   <si>
     <t>0.5493368549432298-</t>
   </si>
   <si>
-    <t>26-</t>
+    <t>27-</t>
   </si>
   <si>
     <t>0.4741014889429218-</t>
+  </si>
+  <si>
+    <t>5-</t>
+  </si>
+  <si>
+    <t>0.8111977982139116-</t>
+  </si>
+  <si>
+    <t>67-43-55-50-311-72-222-87-108-107-</t>
+  </si>
+  <si>
+    <t>0.9030256300502929-0.9333410089177729-0.9211362356811941-0.9244115535859015-0.5279881286090271-0.8988615384648841-0.5557296276570834-0.8695533595824183-0.8393839643144995-0.8393839643144995-</t>
+  </si>
+  <si>
+    <t>4-3-2-1-</t>
+  </si>
+  <si>
+    <t>0.9408248290463863-0.9471404520791032-0.9471404520791032-0.9471404520791032-</t>
+  </si>
+  <si>
+    <t>71-</t>
+  </si>
+  <si>
+    <t>0.5449208817700328-</t>
+  </si>
+  <si>
+    <t>118-</t>
+  </si>
+  <si>
+    <t>0.5525005751315626-</t>
+  </si>
+  <si>
+    <t>169-</t>
+  </si>
+  <si>
+    <t>0.5498318937990085-</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>75-</t>
+  </si>
+  <si>
+    <t>0.5332936006255761-</t>
+  </si>
+  <si>
+    <t>117-</t>
+  </si>
+  <si>
+    <t>0.49732281774598336-</t>
+  </si>
+  <si>
+    <t>1-367-</t>
+  </si>
+  <si>
+    <t>0.9491223047228958-0.48596035978878094-</t>
+  </si>
+  <si>
+    <t>233-</t>
+  </si>
+  <si>
+    <t>0.44538479696483235-</t>
+  </si>
+  <si>
+    <t>121-141-</t>
+  </si>
+  <si>
+    <t>0.5285114137105078-0.5183187996183485-</t>
   </si>
 </sst>
 </file>
@@ -110,7 +179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -189,7 +258,7 @@
         <v>0.6221793497673863</v>
       </c>
       <c r="L2" t="n">
-        <v>1465.0</v>
+        <v>1454.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +296,7 @@
         <v>0.8857454687765618</v>
       </c>
       <c r="L3" t="n">
-        <v>1030.0</v>
+        <v>1132.0</v>
       </c>
     </row>
     <row r="4">
@@ -265,7 +334,463 @@
         <v>0.5003083619284285</v>
       </c>
       <c r="L4" t="n">
-        <v>20758.0</v>
+        <v>19683.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.121944E13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.3758601155290681</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8564760203875171</v>
+      </c>
+      <c r="L5" t="n">
+        <v>11206.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.1257888E13</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>725.0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.37630259226072305</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.3097596929160793</v>
+      </c>
+      <c r="L6" t="n">
+        <v>601204.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.1263846E13</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9408248290463863</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.9471404520791032</v>
+      </c>
+      <c r="L7" t="n">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.12670428E13</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.41274219864827294</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.912909466382761</v>
+      </c>
+      <c r="L8" t="n">
+        <v>379377.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.1287696E13</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.4429433622664355</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.9270728581083654</v>
+      </c>
+      <c r="L9" t="n">
+        <v>539877.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.12986652E13</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>402.0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.3929981172804175</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.6918973769029806</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1030122.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.13062684E13</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.42095137234366087</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9634835770759073</v>
+      </c>
+      <c r="L11" t="n">
+        <v>952988.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6.13073916E13</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.402920800603223</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.6402474907690439</v>
+      </c>
+      <c r="L12" t="n">
+        <v>489322.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.13245852E13</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.3601239182517507</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.6423040065991042</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1066504.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6.13246716E13</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>457.0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.3775554054526336</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.9491223047228958</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2205484.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6.1334262E13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.4016066889685598</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.6579607706469617</v>
+      </c>
+      <c r="L15" t="n">
+        <v>936303.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6.1379712E13</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>278.0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.3852327703886969</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.9143199480628983</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5620228.0</v>
       </c>
     </row>
   </sheetData>
